--- a/Projects/Project_10/Excel Example of Diagonal.xlsx
+++ b/Projects/Project_10/Excel Example of Diagonal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbry1\OneDrive\Documents\CS1324\Projects\Project_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6131085-C7D6-4A9A-B32C-EC7A33E6689A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E38BDD-ED9A-45B7-82F2-22977CCFEECA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="705" yWindow="705" windowWidth="16875" windowHeight="10523" xr2:uid="{B460893D-7365-440F-BE68-1C29A7BC246D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>int height</t>
   </si>
@@ -41,12 +41,36 @@
   <si>
     <t>int stripeWidth</t>
   </si>
+  <si>
+    <t>row 0</t>
+  </si>
+  <si>
+    <t>row 1</t>
+  </si>
+  <si>
+    <t>row 2</t>
+  </si>
+  <si>
+    <t>row 3</t>
+  </si>
+  <si>
+    <t>col 0</t>
+  </si>
+  <si>
+    <t>col 1</t>
+  </si>
+  <si>
+    <t>col 2</t>
+  </si>
+  <si>
+    <t>col 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +96,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -281,7 +311,18 @@
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -591,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC9FE22-E08A-4EB9-8FC5-E6D5C9D2C305}">
-  <dimension ref="C2:AL16"/>
+  <dimension ref="B2:AL16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -602,7 +643,7 @@
     <col min="3" max="3" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:38" x14ac:dyDescent="0.45">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -616,7 +657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:38" x14ac:dyDescent="0.45">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -630,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:38" x14ac:dyDescent="0.45">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -644,7 +685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:38" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:38" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H5" s="14"/>
       <c r="I5" s="14">
         <v>0</v>
@@ -678,7 +719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:38" x14ac:dyDescent="0.45">
       <c r="C6" s="4">
         <v>0</v>
       </c>
@@ -762,27 +803,39 @@
         <v>3</v>
       </c>
       <c r="AD6" s="17">
-        <f>MOD(Y6,$AA$4)</f>
+        <f>MOD(Y6,$AA$4+1)</f>
         <v>0</v>
       </c>
       <c r="AE6" s="17">
-        <f t="shared" ref="AE6:AE9" si="5">MOD(Z6,$AA$4)</f>
+        <f t="shared" ref="AE6:AE9" si="5">MOD(Z6,$AA$4+1)</f>
         <v>1</v>
       </c>
       <c r="AF6" s="17">
-        <f t="shared" ref="AF6:AF9" si="6">MOD(AA6,$AA$4)</f>
-        <v>0</v>
+        <f t="shared" ref="AF6:AF9" si="6">MOD(AA6,$AA$4+1)</f>
+        <v>2</v>
       </c>
       <c r="AG6" s="17">
-        <f t="shared" ref="AG6:AG9" si="7">MOD(AB6,$AA$4)</f>
-        <v>1</v>
-      </c>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="17"/>
+        <f t="shared" ref="AG6:AG9" si="7">MOD(AB6,$AA$4+1)</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="17">
+        <f>IF(AD6=0,0,IF(AND(AD6=0,AC6=0),0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="17">
+        <f t="shared" ref="AJ6:AJ9" si="8">IF(AE6=0,0,IF(AND(AE6=0,AD6=0),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AK6" s="17">
+        <f t="shared" ref="AK6:AK9" si="9">IF(AF6=0,0,IF(AND(AF6=0,AE6=0),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AL6" s="17">
+        <f t="shared" ref="AL6:AL9" si="10">IF(AG6=0,0,IF(AND(AG6=0,AF6=0),0,1))</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:38" x14ac:dyDescent="0.45">
       <c r="C7" s="7">
         <v>0</v>
       </c>
@@ -800,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="13" t="str">
-        <f t="shared" ref="I7:L9" si="8">I$5&amp;", "&amp;$H7</f>
+        <f t="shared" ref="I7:I9" si="11">I$5&amp;", "&amp;$H7</f>
         <v>0, 1</v>
       </c>
       <c r="J7" s="13" t="str">
@@ -820,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="13">
-        <f t="shared" ref="O7:R9" si="9">O$5+$N7</f>
+        <f t="shared" ref="O7:O9" si="12">O$5+$N7</f>
         <v>1</v>
       </c>
       <c r="P7" s="13">
@@ -868,27 +921,39 @@
         <v>4</v>
       </c>
       <c r="AD7" s="17">
-        <f t="shared" ref="AD7:AD9" si="10">MOD(Y7,$AA$4)</f>
+        <f t="shared" ref="AD7:AD9" si="13">MOD(Y7,$AA$4+1)</f>
         <v>1</v>
       </c>
       <c r="AE7" s="17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF7" s="17">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="AI7" s="17">
+        <f t="shared" ref="AI7:AI9" si="14">IF(AD7=0,0,IF(AND(AD7=0,AC7=0),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="17">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AK7" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="17">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:38" x14ac:dyDescent="0.45">
       <c r="C8" s="7">
         <v>1</v>
       </c>
@@ -902,11 +967,11 @@
         <v>0</v>
       </c>
       <c r="H8" s="16">
-        <f t="shared" ref="H8:H9" si="11">H7+1</f>
+        <f t="shared" ref="H8:H9" si="15">H7+1</f>
         <v>2</v>
       </c>
       <c r="I8" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0, 2</v>
       </c>
       <c r="J8" s="13" t="str">
@@ -922,11 +987,11 @@
         <v>3, 2</v>
       </c>
       <c r="N8" s="16">
-        <f t="shared" ref="N8:N9" si="12">N7+1</f>
+        <f t="shared" ref="N8:N9" si="16">N7+1</f>
         <v>2</v>
       </c>
       <c r="O8" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="P8" s="13">
@@ -974,27 +1039,39 @@
         <v>5</v>
       </c>
       <c r="AD8" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
       <c r="AE8" s="17">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="17">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AI8" s="17"/>
-      <c r="AJ8" s="17"/>
-      <c r="AK8" s="17"/>
-      <c r="AL8" s="17"/>
+        <v>2</v>
+      </c>
+      <c r="AI8" s="17">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="17">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AL8" s="17">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="3:38" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:38" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C9" s="10">
         <v>1</v>
       </c>
@@ -1008,11 +1085,11 @@
         <v>1</v>
       </c>
       <c r="H9" s="16">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="I9" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="I9" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>0, 3</v>
       </c>
       <c r="J9" s="13" t="str">
@@ -1028,11 +1105,11 @@
         <v>3, 3</v>
       </c>
       <c r="N9" s="16">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="O9" s="13">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="O9" s="13">
-        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="P9" s="13">
@@ -1080,27 +1157,78 @@
         <v>6</v>
       </c>
       <c r="AD9" s="17">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="AE9" s="17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9" s="17">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG9" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="17"/>
-      <c r="AL9" s="17"/>
+      <c r="AI9" s="17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="17">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AK9" s="17">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AL9" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17"/>
+    </row>
+    <row r="12" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="13" t="e">
+        <f>if</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D13" s="13">
+        <f t="shared" ref="D13:F13" si="17">MOD(P6,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
       <c r="AD13" s="13">
         <v>255</v>
       </c>
@@ -1114,7 +1242,26 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="13">
+        <f t="shared" ref="C14:F14" si="18">MOD(O7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="13">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="AD14" s="13">
         <v>0</v>
       </c>
@@ -1128,7 +1275,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="13">
+        <f t="shared" ref="C15:F15" si="19">MOD(O8,2)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
       <c r="AD15" s="13">
         <v>255</v>
       </c>
@@ -1142,7 +1308,26 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="13">
+        <f t="shared" ref="C16:F16" si="20">MOD(O9,2)</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="13">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="13">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="AD16" s="13">
         <v>255</v>
       </c>
@@ -1157,8 +1342,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C6:F9">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1167,7 +1353,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6:R9 T6:W9 Y6:AB9 AD6:AG9 AI6:AL9">
+  <conditionalFormatting sqref="O6:R9 T6:W9 Y6:AB9 AD6:AG9 AI6:AL10">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF7030A0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD13:AG16">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1177,7 +1373,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD13:AG16">
+  <conditionalFormatting sqref="AI6:AL9">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:F16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
